--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_76.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_76.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,371 +488,396 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2708333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C:maj', 'F:maj', 'C:maj/E'], ['C:min', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(12.06, 17.06)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj'], ['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(43.18, 45.1)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:09.860000', '0:01:13.740000'), ('0:00:07.960000', '0:00:13.120000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:57.480000', '0:01:04.580000'), ('0:01:25.580000', '0:01:34.240000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2767857142857143</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_187</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_86</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04684684684684685</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['G:7', 'C:maj', 'C:min']]</t>
+          <t>[['C', 'C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(58.32, 59.68), (58.88, 61.68)]</t>
+          <t>[['Bb', 'Bb', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(0.58, 8.96), (28.3, 38.34)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:03:55.320000', '0:03:59.980000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:14.590000', '0:00:16.260000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2863636363636364</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(48.001, 54.307)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(15.3, 17.78)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:47.800000', '0:01:38.980000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:48.320000', '0:01:46.760000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2266666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'B:maj/D#']]</t>
-        </is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_108</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.25</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'E']]</t>
+          <t>[['A', 'D/5', 'A', 'E/4', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(54.76, 60.76)]</t>
+          <t>[['A', 'D', 'A', 'E', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(20.769931, 26.946439)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
+          <t>[('0:00:17.913000', '0:00:28.337000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:01.829138', '0:00:20.776621')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>isophonics_216</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.119815668202765</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A', 'A:7', 'D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.36, 5.6)]</t>
+          <t>[['F:maj', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:01:04.871315', '0:01:12.777709')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:19.060000', '0:00:30.080000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1944444444444444</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G', 'G'], ['D', 'G', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D', 'D/b7'], ['A', 'D', 'D/b7', 'G/3']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(65.382154, 77.68873), (59.333356, 68.841927)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(29.965374, 35.781972), (31.439841, 37.291269)]</t>
+          <t>[('0:01:52.140000', '0:01:57.460000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+          <t>[('0:01:56.700000', '0:02:02.320000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_30</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1272727272727273</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Ab', 'Ab', 'Ab']]</t>
-        </is>
+          <t>isophonics_235</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_231</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1087570621468927</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb', 'Bb', 'Bb']]</t>
+          <t>[['Eb', 'F', 'Bb']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(22.94, 30.25)]</t>
+          <t>[['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(52.12, 55.48)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:59.292687', '0:01:14.118628')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:17.014988', '0:00:20.892721')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1202898550724638</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min'], ['F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['C', 'C/G', 'G:7', 'C']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(2.86, 7.5), (19.2, 21.84)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(23.04, 28.92), (253.0, 257.98)]</t>
+          <t>[('0:00:00.220000', '0:00:08.880000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:49.140000', '0:01:02.460000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>schubert-winterreise_74</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+      <c r="D10" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58), (13.48, 20.96)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(9.78, 14.36), (1.54, 6.68)]</t>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:03.200000', '0:01:13.120000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -856,279 +886,276 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'A#:maj/F', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:7', 'E', 'A', 'E']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(16.02, 24.4)]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(13.38418, 21.737596)]</t>
+          <t>[('0:01:04.300000', '0:01:07.900000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:18.460000', '0:00:21.820000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_65</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_58</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.03724878724878725</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb:min7', 'Eb:7', 'Ab:maj6'], ['Eb:7', 'Ab:maj6', 'F:7', 'Bb:min7']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min7', 'Bb:7', 'Eb:maj6'], ['Bb:7', 'Eb:maj6', 'C:7', 'F:min7']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(7.42, 9.88), (3.74, 6.81)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.59, 2.26), (1.43, 3.1)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:01:08.080000', '0:01:27.320000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_22</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.05649350649350649</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Bb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G/3', 'G', 'G']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(66.74, 72.5)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(1.366439, 5.255782)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:06.160000', '0:00:15.080000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:57.500000', '0:00:59.680000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.08454011741682974</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Db', 'Db:min', 'Ab', 'Bb:7']]</t>
-        </is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C', 'C:min', 'G/3', 'A:7']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(129.12, 131.61)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(15.565442, 20.766712)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:01:30.780000', '0:01:53.600000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:24.920000', '0:01:45.440000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1483870967741935</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min', 'G:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(14.52, 21.68)]</t>
+          <t>[('0:00:53.160000', '0:00:55.820000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:19.260000', '0:00:22.260000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1733870967741936</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'D:maj', 'A:maj'], ['A:maj', 'D:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D/7', 'D/6', 'A'], ['A', 'D', 'D/7']]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(19.727, 38.543), (45.298, 63.135)]</t>
+          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(12.39, 14.239254), (10.560212, 12.866913)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(4.16, 6.7)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(41.32, 48.94)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:13.080000', '0:01:14.300000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:09.180000', '0:01:01')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
